--- a/modelos deterministicos/28_08_modelos deter343e.xlsx
+++ b/modelos deterministicos/28_08_modelos deter343e.xlsx
@@ -1,31 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JpMurcia\Jp_asig_2018-S2\modelos deterministicos\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4D2D5F1-0673-416B-A07A-46ACCE4C1D12}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7752" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
+    <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
+    <sheet name="Hoja4" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="28">
   <si>
     <t xml:space="preserve">Nro </t>
   </si>
@@ -79,18 +87,587 @@
   </si>
   <si>
     <t>tomamos la filaz  con menor razon del mayor valor absoluto de ecuacion Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">basica </t>
+  </si>
+  <si>
+    <r>
+      <t>max z=2x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>+2x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-3x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>+x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>+3x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> &lt;=12</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>+x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> &lt;=2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>(-X</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)+X</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>+X</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> &lt;=4</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&gt;=0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>+x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;5</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>+x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>+x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&gt;2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>3x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>+x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;4</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Z=5x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>+x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>+3x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="172" formatCode="0.000000000000"/>
+    <numFmt numFmtId="164" formatCode="0.000000000000"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -144,7 +721,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -167,15 +744,26 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="172" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -455,19 +1043,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="10" width="11.42578125" style="1"/>
+    <col min="1" max="10" width="11.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -499,7 +1087,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -516,7 +1104,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -537,7 +1125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -558,7 +1146,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -582,7 +1170,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>0</v>
       </c>
@@ -598,7 +1186,7 @@
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>0</v>
       </c>
@@ -634,7 +1222,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>1</v>
       </c>
@@ -674,7 +1262,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>2</v>
       </c>
@@ -714,7 +1302,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>3</v>
       </c>
@@ -754,7 +1342,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>0</v>
       </c>
@@ -790,7 +1378,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>1</v>
       </c>
@@ -826,7 +1414,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>2</v>
       </c>
@@ -862,7 +1450,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>3</v>
       </c>
@@ -904,28 +1492,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="7.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="7.85546875" style="1" customWidth="1"/>
+    <col min="1" max="2" width="7.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="7.88671875" style="1" customWidth="1"/>
     <col min="4" max="5" width="10" style="1" customWidth="1"/>
-    <col min="6" max="6" width="19.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="19.6640625" style="1" customWidth="1"/>
     <col min="7" max="7" width="10" style="1" customWidth="1"/>
-    <col min="8" max="8" width="25.85546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="25.88671875" style="1" customWidth="1"/>
     <col min="9" max="9" width="10" style="1" customWidth="1"/>
-    <col min="10" max="10" width="25.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="25.6640625" style="1" customWidth="1"/>
     <col min="11" max="11" width="10" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="12" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -960,7 +1548,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>0</v>
       </c>
@@ -990,7 +1578,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -1020,7 +1608,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -1050,7 +1638,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>3</v>
       </c>
@@ -1078,7 +1666,7 @@
         <v>52.5</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>0</v>
       </c>
@@ -1118,7 +1706,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>1</v>
       </c>
@@ -1162,7 +1750,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>2</v>
       </c>
@@ -1202,11 +1790,11 @@
         <v>90</v>
       </c>
       <c r="K8" s="1">
-        <f t="shared" ref="K8:K9" si="4">+J8/E8</f>
+        <f t="shared" ref="K8" si="4">+J8/E8</f>
         <v>23.684210526315791</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>3</v>
       </c>
@@ -1250,7 +1838,7 @@
         <v>-112.5</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>0</v>
       </c>
@@ -1290,7 +1878,7 @@
         <v>221.05263157894737</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>1</v>
       </c>
@@ -1330,7 +1918,7 @@
         <v>25.263157894736842</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>2</v>
       </c>
@@ -1370,7 +1958,7 @@
         <v>23.684210526315791</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>3</v>
       </c>
@@ -1410,7 +1998,7 @@
         <v>54.473684210526315</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="F16" s="8">
         <f>J10</f>
         <v>221.05263157894737</v>
@@ -1418,6 +2006,346 @@
       <c r="H16" s="9">
         <f>+J11*5+J12*4</f>
         <v>221.0526315789474</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF0901AE-47DB-4B66-B1DE-D6E42D295D4E}">
+  <dimension ref="A1:M13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L20" sqref="L20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="13" max="13" width="26.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+      <c r="A2" s="3">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="3">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3">
+        <v>2</v>
+      </c>
+      <c r="E2" s="3">
+        <v>2</v>
+      </c>
+      <c r="F2" s="3">
+        <v>3</v>
+      </c>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3">
+        <v>0</v>
+      </c>
+      <c r="K2" s="3"/>
+      <c r="L2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M2" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3" s="3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3">
+        <v>2</v>
+      </c>
+      <c r="E3" s="3">
+        <v>-1</v>
+      </c>
+      <c r="F3" s="12">
+        <v>1</v>
+      </c>
+      <c r="G3" s="3">
+        <v>1</v>
+      </c>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3">
+        <v>4</v>
+      </c>
+      <c r="K3" s="3">
+        <f>+J3/F3</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" s="3">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3">
+        <v>1</v>
+      </c>
+      <c r="E4" s="3">
+        <v>1</v>
+      </c>
+      <c r="F4" s="3">
+        <v>3</v>
+      </c>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3">
+        <v>1</v>
+      </c>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3">
+        <v>2</v>
+      </c>
+      <c r="K4" s="3">
+        <f t="shared" ref="K4:K5" si="0">+J4/F4</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="M4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5" s="4">
+        <v>3</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4">
+        <v>1</v>
+      </c>
+      <c r="E5" s="4">
+        <v>1</v>
+      </c>
+      <c r="F5" s="4">
+        <v>1</v>
+      </c>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4">
+        <v>1</v>
+      </c>
+      <c r="J5" s="4">
+        <v>12</v>
+      </c>
+      <c r="K5" s="3">
+        <f>+J5/F5</f>
+        <v>12</v>
+      </c>
+      <c r="M5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="M6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1" t="e">
+        <f>+J7/E7</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1" t="e">
+        <f t="shared" ref="K8" si="1">+J8/E8</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="1" t="e">
+        <f>+J9/E9</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="1"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="1"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="1"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53A281CF-12BD-485D-8518-F53999B5C387}">
+  <dimension ref="M3:M6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M13" sqref="M13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="13" max="13" width="13.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="13:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="M3" s="15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="13:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="M4" s="15" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="13:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="M5" s="15" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="13:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="M6" s="15" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
